--- a/students.xlsx
+++ b/students.xlsx
@@ -7,16 +7,11 @@
   </sheets>
   <definedNames/>
   <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="865npQCTvk/F6ly5Ce1/mbo7JmjFKHSERe5fqYeg6SY="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>SID</t>
   </si>
@@ -56,17 +51,27 @@
   <si>
     <t>J</t>
   </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <color theme="1"/>
@@ -93,7 +98,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -315,7 +320,7 @@
     <col customWidth="1" min="1" max="1" width="3.57"/>
     <col customWidth="1" min="2" max="2" width="5.71"/>
     <col customWidth="1" min="3" max="3" width="5.86"/>
-    <col customWidth="1" min="4" max="26" width="8.71"/>
+    <col customWidth="1" min="4" max="6" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -418,25 +423,47 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9.0</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>80.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>10.0</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>75.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2">
+        <v>65.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
